--- a/01_dados/dados resultantes/tabela_feature_importance.xlsx
+++ b/01_dados/dados resultantes/tabela_feature_importance.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -481,7 +481,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -498,7 +498,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -532,10 +532,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,13 +546,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,13 +563,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/01_dados/dados resultantes/tabela_feature_importance.xlsx
+++ b/01_dados/dados resultantes/tabela_feature_importance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP I3\OneDrive\Documentos\LAPEI-CIGETS\sa_maismedicos\01_dados\dados resultantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/LAPEI-CIGETS/sa_maismedicos/01_dados/dados resultantes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_C362884B3CD4ED7869F52322FDDF3DAFAD2ED5E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98586FB6-71E0-4502-902A-93A9F62E5C34}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="4890" yWindow="4185" windowWidth="10470" windowHeight="6615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -83,9 +84,6 @@
     <t>Média de vínculos por mês</t>
   </si>
   <si>
-    <t>Média de Técnicos/Auxiliares de Enfermagem</t>
-  </si>
-  <si>
     <t>Média de Agentes de Saúde</t>
   </si>
   <si>
@@ -95,9 +93,6 @@
     <t>População</t>
   </si>
   <si>
-    <t>Orçamento em saúde</t>
-  </si>
-  <si>
     <t>Taxa de homicídios</t>
   </si>
   <si>
@@ -105,12 +100,18 @@
   </si>
   <si>
     <t>Prorrogação</t>
+  </si>
+  <si>
+    <t>Média de Técnicos/Aux. De Enfermagem</t>
+  </si>
+  <si>
+    <t>Equipamentos esportivos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,11 +422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,10 +448,10 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -461,13 +462,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -478,10 +479,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -492,16 +493,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -509,16 +510,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -526,13 +527,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -543,16 +544,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -560,16 +561,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
